--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel Rodriguez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel Rodriguez\source\repos\Unidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A708184-BED2-456A-A7AC-7C2B6614D862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FDE06-F50A-439D-BAAC-425C75561696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-1770" windowWidth="29040" windowHeight="15720" xr2:uid="{FEFAF128-5945-4D9C-9F64-4D9CE690348D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEFAF128-5945-4D9C-9F64-4D9CE690348D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UNIDAD</t>
   </si>
   <si>
     <t>UBICACIÓN</t>
-  </si>
-  <si>
-    <t>ESTATUS</t>
   </si>
   <si>
     <t>Fecha:</t>
@@ -55,12 +74,21 @@
   <si>
     <t>TOTAL DE UNIDADES</t>
   </si>
+  <si>
+    <t>COORDENADAS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +106,36 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFFFF00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -118,11 +176,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -131,7 +218,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -139,27 +226,18 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -167,12 +245,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -181,55 +259,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -237,119 +267,92 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,53 +371,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76C3855-3821-F510-5D2F-9878C15482A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="57150"/>
-          <a:ext cx="1266825" cy="662647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,443 +752,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B2CF7-D30D-4309-A00D-BD352E6CD023}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="11"/>
+    <col min="8" max="8" width="20.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="27" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="23" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1331,20 +1301,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1b1cfb99-9d6c-48a3-8bfe-c1d14696532f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1b1cfb99-9d6c-48a3-8bfe-c1d14696532f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,14 +1336,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B813AF0E-82E2-4D55-BA05-306D5BE3A8A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3690823-454A-44E5-91CB-422A6FE4508A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1387,4 +1349,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B813AF0E-82E2-4D55-BA05-306D5BE3A8A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>